--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood-pulseOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
